--- a/examples/Users.xlsx
+++ b/examples/Users.xlsx
@@ -5,110 +5,148 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\TaskManager\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81297DEE-4944-45D1-8CCD-C7ED3D20DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDEE166-D4FB-4BA4-B454-3529D51E53B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2550" windowWidth="24585" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>adminlogin1</t>
-  </si>
-  <si>
-    <t>adminpassword1</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>ИмяАдмина1</t>
-  </si>
-  <si>
-    <t>login1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>password1</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>ФИученика1</t>
-  </si>
-  <si>
-    <t>login2</t>
-  </si>
-  <si>
     <t>password2</t>
   </si>
   <si>
-    <t>ФИученика2</t>
-  </si>
-  <si>
-    <t>login3</t>
-  </si>
-  <si>
     <t>password3</t>
   </si>
   <si>
-    <t>ФИученика3</t>
-  </si>
-  <si>
-    <t>log1n12</t>
-  </si>
-  <si>
-    <t>password12</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>ФИученика22</t>
-  </si>
-  <si>
-    <t>log1n13</t>
-  </si>
-  <si>
-    <t>password13</t>
-  </si>
-  <si>
-    <t>ФИученика23</t>
-  </si>
-  <si>
-    <t>log1n14</t>
-  </si>
-  <si>
-    <t>password14</t>
-  </si>
-  <si>
-    <t>ФИученика24</t>
-  </si>
-  <si>
-    <t>log1n15</t>
-  </si>
-  <si>
-    <t>password15</t>
-  </si>
-  <si>
-    <t>ФИученика25</t>
+    <t>Какое-то Имя 1</t>
+  </si>
+  <si>
+    <t>Какое-то Имя 2</t>
+  </si>
+  <si>
+    <t>Какое-то Имя 3</t>
+  </si>
+  <si>
+    <t>Какое-то Имя 4</t>
+  </si>
+  <si>
+    <t>Какое-то Имя 5</t>
+  </si>
+  <si>
+    <t>Какое-то Имя 6</t>
+  </si>
+  <si>
+    <t>Какое-то Имя 7</t>
+  </si>
+  <si>
+    <t>Какое-то Имя 8</t>
+  </si>
+  <si>
+    <t>Какое-то Имя 9</t>
+  </si>
+  <si>
+    <t>Какое-то Имя 10</t>
+  </si>
+  <si>
+    <t>password4</t>
+  </si>
+  <si>
+    <t>password5</t>
+  </si>
+  <si>
+    <t>password6</t>
+  </si>
+  <si>
+    <t>password7</t>
+  </si>
+  <si>
+    <t>password8</t>
+  </si>
+  <si>
+    <t>password9</t>
+  </si>
+  <si>
+    <t>password10</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>wUkN</t>
+  </si>
+  <si>
+    <t>Madf</t>
+  </si>
+  <si>
+    <t>0kvA</t>
+  </si>
+  <si>
+    <t>VFrj</t>
+  </si>
+  <si>
+    <t>GbV6</t>
+  </si>
+  <si>
+    <t>J90d</t>
+  </si>
+  <si>
+    <t>Vihp</t>
+  </si>
+  <si>
+    <t>hZE0</t>
+  </si>
+  <si>
+    <t>FkoQ</t>
+  </si>
+  <si>
+    <t>tkqm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -141,7 +179,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,122 +508,149 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/Users.xlsx
+++ b/examples/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\TaskManager\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDEE166-D4FB-4BA4-B454-3529D51E53B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930D41B0-4AE0-452F-AB4C-AAB55DDD741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2550" windowWidth="24585" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24585" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>password1</t>
   </si>
@@ -40,48 +40,6 @@
     <t>Какое-то Имя 3</t>
   </si>
   <si>
-    <t>Какое-то Имя 4</t>
-  </si>
-  <si>
-    <t>Какое-то Имя 5</t>
-  </si>
-  <si>
-    <t>Какое-то Имя 6</t>
-  </si>
-  <si>
-    <t>Какое-то Имя 7</t>
-  </si>
-  <si>
-    <t>Какое-то Имя 8</t>
-  </si>
-  <si>
-    <t>Какое-то Имя 9</t>
-  </si>
-  <si>
-    <t>Какое-то Имя 10</t>
-  </si>
-  <si>
-    <t>password4</t>
-  </si>
-  <si>
-    <t>password5</t>
-  </si>
-  <si>
-    <t>password6</t>
-  </si>
-  <si>
-    <t>password7</t>
-  </si>
-  <si>
-    <t>password8</t>
-  </si>
-  <si>
-    <t>password9</t>
-  </si>
-  <si>
-    <t>password10</t>
-  </si>
-  <si>
     <t>user1</t>
   </si>
   <si>
@@ -91,55 +49,13 @@
     <t>user3</t>
   </si>
   <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>user7</t>
-  </si>
-  <si>
-    <t>user8</t>
-  </si>
-  <si>
-    <t>user9</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
     <t>wUkN</t>
   </si>
   <si>
     <t>Madf</t>
   </si>
   <si>
-    <t>0kvA</t>
-  </si>
-  <si>
-    <t>VFrj</t>
-  </si>
-  <si>
-    <t>GbV6</t>
-  </si>
-  <si>
     <t>J90d</t>
-  </si>
-  <si>
-    <t>Vihp</t>
-  </si>
-  <si>
-    <t>hZE0</t>
-  </si>
-  <si>
-    <t>FkoQ</t>
-  </si>
-  <si>
-    <t>tkqm</t>
   </si>
 </sst>
 </file>
@@ -494,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,10 +426,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -524,10 +440,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -537,115 +453,17 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
